--- a/data/trans_bre/P25A_7_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_7_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,08</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>210,26%</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>272,43%</t>
+          <t>171,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>21,64%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>61,91%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 10,47</t>
+          <t>-4,17; 19,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 28,21</t>
+          <t>-14,53; 13,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 36,12</t>
+          <t>4,17; 22,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-9,37; 19,36</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-68,61; 997,51</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>107,07%</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-33,55%</t>
+          <t>53,64%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-28,9%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-15,74%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 14,53</t>
+          <t>-9,97; 14,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 12,99</t>
+          <t>-7,72; 16,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,08; 5,1</t>
+          <t>-39,36; 11,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,24; 508,17</t>
+          <t>-34,82; 15,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,25; 437,38</t>
+          <t>-61,65; 473,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,03; 70,48</t>
+          <t>-62,95; 648,55</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-90,48; 194,32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-89,44; 200,34</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>68,65%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>111,56%</t>
+          <t>27,52%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>62,39%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>121,41%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 11,16</t>
+          <t>-9,28; 9,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 10,76</t>
+          <t>-7,4; 9,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 15,74</t>
+          <t>-5,86; 15,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 378,46</t>
+          <t>-1,32; 19,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 355,3</t>
+          <t>-67,12; 265,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 428,76</t>
+          <t>-62,02; 478,17</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-41,94; 373,35</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-24,67; 514,46</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,57</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,82</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,86</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>118,35%</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>73,7%</t>
+          <t>85,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>56,4%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>74,51%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19,04%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 19,41</t>
+          <t>-1,76; 18,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 16,93</t>
+          <t>-3,85; 17,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 20,54</t>
+          <t>-0,61; 20,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,96; 296,65</t>
+          <t>-7,47; 16,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 214,08</t>
+          <t>-18,09; 332,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 241,16</t>
+          <t>-27,64; 279,0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 251,96</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-32,52; 126,32</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,81</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,44</t>
+          <t>19,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,01</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>111,98%</t>
+          <t>21,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>175,92%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>117,86%</t>
+          <t>159,41%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>64,55%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>134,21%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 29,39</t>
+          <t>-3,31; 26,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,45; 29,41</t>
+          <t>5,3; 34,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,47; 25,4</t>
+          <t>-4,79; 24,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,38; 267,39</t>
+          <t>5,33; 40,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>52,98; 418,46</t>
+          <t>-17,81; 239,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,4; 356,9</t>
+          <t>21,01; 560,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-24,68; 251,2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,26; 412,16</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,43</t>
+          <t>20,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>20,03</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,69</t>
+          <t>26,38</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>215,06%</t>
+          <t>17,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>120,35%</t>
+          <t>146,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>214,78%</t>
+          <t>197,37%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>281,48%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>93,62%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,9; 34,05</t>
+          <t>1,13; 38,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 26,79</t>
+          <t>3,36; 39,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 38,27</t>
+          <t>8,99; 43,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>51,17; 653,72</t>
+          <t>-1,45; 43,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,36; 337,66</t>
+          <t>-2,33; 712,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,55; 636,09</t>
+          <t>-4,53; 1050,55</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>41,61; 1528,11</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-19,41; 447,39</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>125,62%</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>115,89%</t>
+          <t>59,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>120,59%</t>
+          <t>75,77%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>72,82%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>53,28%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 14,1</t>
+          <t>0,93; 11,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 13,48</t>
+          <t>2,11; 12,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,25; 16,04</t>
+          <t>1,01; 14,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>62,69; 200,41</t>
+          <t>0,11; 16,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,69; 189,43</t>
+          <t>5,31; 141,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,05; 212,58</t>
+          <t>15,96; 167,51</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 162,97</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 138,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25A_7_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_7_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,26</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,46</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>171,66%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>21,64%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>61,91%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.540563798678878</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.588608025635866</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.65010036024065</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.85940961724773</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.5093889016015958</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.5618413611523498</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6683374199135639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 19,65</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,53; 13,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 22,93</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,37; 19,36</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-68,61; 997,51</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.7095705005317</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.64595686411474</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.62629479805749</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-9.046598667511553</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.6804593280952296</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.38834505330811</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.85225421744812</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>22.00859601384403</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>20.43798005830983</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,69</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>22,79%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>53,64%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-28,9%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-15,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,97; 14,74</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; 16,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-39,36; 11,69</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-34,82; 15,23</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-61,65; 473,69</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-62,95; 648,55</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-90,48; 194,32</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-89,44; 200,34</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.1519349551617796</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.52018734232594</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-6.434751232877678</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.021461542335294</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.0123294970247574</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2565421357579878</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3216697098571475</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1829866398160044</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,93</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,73</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,19%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>27,52%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>62,39%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>121,41%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-18.60367478941324</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.84300246967077</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-40.26625546365416</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-37.02460580561209</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8242218770027454</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7429937122178201</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.9066432271825741</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8997816835738851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,28; 9,09</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 9,72</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,86; 15,82</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 19,52</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-67,12; 265,38</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-62,02; 478,17</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-41,94; 373,35</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-24,67; 514,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.18162217395442</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.61648106681656</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.00607934667233</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.98490137787915</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.715416514394585</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.761194514942393</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.857572808005339</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.026754278131418</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +815,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,79</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,98</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>85,64%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>56,4%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>74,51%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>19,04%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.749484510423518</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.772396244327709</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.327865768513877</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>10.23602493913312</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.2304302226168483</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2380861950892836</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.6823448916393815</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.359180869844657</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 18,83</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 17,22</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 20,85</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-7,47; 16,41</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-18,09; 332,58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-27,64; 279,0</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 251,96</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-32,52; 126,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.503482785354416</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.093407219628412</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.655209329699841</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3980754798249923</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6427513628436269</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6501434487798223</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4061086435442079</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1950368234906574</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.882168309968478</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.510250225274032</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.33386658941663</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.99936231840603</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.175481908432062</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.94550731370107</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>3.983451486438544</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>5.465480378601302</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,24</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>19,57</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,76</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>21,22</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>58,75%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>159,41%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>64,55%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>134,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 26,88</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5,3; 34,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 24,09</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,33; 40,22</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-17,81; 239,24</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>21,01; 560,78</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-24,68; 251,2</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>12,26; 412,16</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>8.420610244347294</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.189036932466316</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.53132870641332</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.559391141782467</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.8895524130042671</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.6510835693017525</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.8282539936024824</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1839423635802883</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>20,2</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>20,03</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>26,38</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>17,34</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>146,96%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>197,37%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>281,48%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>93,62%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.501714033502327</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.142904095913129</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1567919780380939</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.062178664395248</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.160821166589847</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2276747345043453</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.0553425566811817</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.346018085036237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 38,65</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 39,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,99; 43,94</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 43,25</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 712,48</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-4,53; 1050,55</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>41,61; 1528,11</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-19,41; 447,39</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.96862349215105</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>17.17683661792391</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>21.26777406956163</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.23447261169522</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>3.556295219849321</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.065257341287625</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.792372593270387</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.222067175322581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1015,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>6,4</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,44</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>8,43</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>59,69%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>75,77%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>72,82%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>53,28%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>11.80072696846606</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>19.36425783823283</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>10.39163350433363</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>21.37220475576502</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.6993567646985879</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.599546068634733</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.7521808732580827</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1.34685489265655</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 11,84</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 12,08</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 14,16</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 16,99</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>5,31; 141,7</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>15,96; 167,51</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 162,97</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; 138,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.756260082407252</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>5.168915836498118</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.204573545733088</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>5.502323170070238</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.1178747861651652</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.169659402482316</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.2132272475212973</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0.1419880409762047</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>28.39212338402734</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>34.44459162339672</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>24.39229641047384</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>40.41394034465736</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>2.565790980253957</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>5.49526383259482</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>2.670042111536694</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>4.128807140467061</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>22.03676568265909</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>21.52394945427505</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>28.32090621374782</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>14.11627828738175</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.88630542230013</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>2.176211614783737</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>3.06883376371581</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.7326482561834456</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>4.253998028570782</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>4.34382351623823</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>9.057078804068954</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-4.71429458636606</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.06315026868036683</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.007244114844864678</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0.4130120741682894</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.306658389917197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>40.50143594369698</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>41.66561463311058</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>47.30452030004857</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>38.85331313450178</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>8.459232825124552</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>11.8712597575695</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>16.63131982701463</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>3.650784117889819</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>5.772552639953236</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>7.395401182022411</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>8.750168598088361</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>7.775247963020196</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.5406678500773823</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.7732119397256924</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.778699322392339</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.4921436495553164</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.03291220708318876</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>2.338400151998337</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>1.264477996981606</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-1.396386924864251</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.01409322175246176</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.1409393949497721</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.01754111038552988</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.0989718135421357</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.88089769506376</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>12.36378105117868</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>14.42331009404809</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>15.60909928134707</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.410816261144394</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.732189891774933</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.674862530237777</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.271947639291197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1313,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
